--- a/biology/Médecine/Marc_Laffineur/Marc_Laffineur.xlsx
+++ b/biology/Médecine/Marc_Laffineur/Marc_Laffineur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Marc Laffineur, né le 10 août 1945 à Maubeuge (Nord), est un homme politique français, ancien membre des Républicains. À partir de 2007, il exerce la fonction de 1er vice-président de l'Assemblée nationale jusqu'au 29 juin 2011, date à laquelle il est nommé secrétaire d'État auprès du ministre de la Défense et des Anciens combattants jusqu'au 10 mai 2012.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Benjamin d'une famille de 16 enfants et père de 3 enfants, Marc Laffineur est docteur en médecine.
 Marc Laffineur est élu conseiller général de Maine-et-Loire en 1982. L'année suivante, il devient maire d'Avrillé. Il est réélu à ce poste en 1989, 1995 et 2001. En 2008, il gagne l'élection municipale d'Avrillé au premier tour avec 59,63 % des voix.
@@ -527,13 +541,13 @@
 De 2003 à 2004, Marc Laffineur a été auditeur de la 56e session nationale de l’IHEDN.
 En 2006, il prend la présidence de la fédération UMP de Maine-et-Loire à Roselyne Bachelot.
 En 2008, Marc Laffineur est nommé 1er vice-président délégué de Dialogue &amp; Initiative. Fondé en 2000 par Michel Barnier, Jacques Barrot, Dominique Perben et Jean-Pierre Raffarin, Dialogue &amp; Initiative a préfiguré la création de l'UMP et a rassemblé 120 parlementaires de la droite et du centre. Il anime ensuite le club autour d'un leitmotiv : « Comment remettre l'économie au service de l'homme ? ». En vue de l'élaboration du projet présidentiel pour 2012, il organise en 2011 deux Colloques à l'Assemblée nationale sur les thèmes : « Argent et Humanisme font-ils bon ménage ? » et « Les écarts de salaire sont-ils sans limites ? ».
-Le 29 juin 2011, il est nommé secrétaire d’État auprès du ministre de la Défense et des anciens Combattants[1]. En octobre 2011, il lance avec son collègue Jean Leonetti, le Ministre des affaires européennes le courant des Humanistes de l'UMP.
+Le 29 juin 2011, il est nommé secrétaire d’État auprès du ministre de la Défense et des anciens Combattants. En octobre 2011, il lance avec son collègue Jean Leonetti, le Ministre des affaires européennes le courant des Humanistes de l'UMP.
 Il se présente lors des élections législatives françaises de 2012. Lors du second tour, il rassemble 50,10 % des voix contre 49,90 % pour la candidate socialiste Silvia Camara-Tombini.
 En 2012 et 2013, il prend part au mouvement d'opposition au mariage homosexuel en France.
-Lors de l'élection municipale d'Avrillé de 2014, la liste qu'il conduit rassemble 65,28% des suffrages et il est réélu[2].
+Lors de l'élection municipale d'Avrillé de 2014, la liste qu'il conduit rassemble 65,28% des suffrages et il est réélu.
 Il s’est vu remettre, le 10 mars 2016, les insignes de colonel de la réserve citoyenne.
-Il soutient Alain Juppé pour la primaire présidentielle des Républicains de 2016[3].
-Le 14 novembre 2017, il annonce quitter Les Républicains[4] à la suite de l'élection de Laurent Wauquiez et à une ligne politique jugée trop à droite[5].
+Il soutient Alain Juppé pour la primaire présidentielle des Républicains de 2016.
+Le 14 novembre 2017, il annonce quitter Les Républicains à la suite de l'élection de Laurent Wauquiez et à une ligne politique jugée trop à droite.
 </t>
         </is>
       </c>
@@ -562,14 +576,16 @@
           <t>Détail des fonctions et des mandats[6]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mandats locaux
 14 mars 1983 - 19 mars 1989 : maire d'Avrillé
 20 mars 1989 - 18 juin 1995 : maire d'Avrillé
 19 juin 1995 - 18 mars 2001 : maire d'Avrillé
 19 mars 2001 - 16 mars 2008 : maire d'Avrillé
-17 mars 2008 - 04 juillet 2020 : maire d'Avrillé (réélu en mars 2014. Se représente en 2020 mais arrive troisième à l'issue du premier tour et quitte la vie politique[7])
+17 mars 2008 - 04 juillet 2020 : maire d'Avrillé (réélu en mars 2014. Se représente en 2020 mais arrive troisième à l'issue du premier tour et quitte la vie politique)
 15 avril 2001 - 16 mars 2008 : vice-président de la Communauté d'agglomération d'Angers Loire Métropole
 16 mars 2008 - 04 juillet 2020 : vice-président de la Communauté d'agglomération d'Angers Loire Métropole
 22 mars 1982 - 2 octobre 1988 : conseiller général du Canton d'Angers-Nord-Ouest
@@ -625,9 +641,11 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (14 juillet 2018)[8]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (14 juillet 2018)</t>
         </is>
       </c>
     </row>
